--- a/tests/artifact/script/UI-ViewRegister.xlsx
+++ b/tests/artifact/script/UI-ViewRegister.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="852">
   <si>
     <t>target</t>
   </si>
@@ -2429,89 +2429,209 @@
     <t>${Click.ExpandTable}</t>
   </si>
   <si>
-    <t>Verify the View Register List Heading</t>
-  </si>
-  <si>
-    <t>${verify.RegisterList}</t>
-  </si>
-  <si>
-    <t>fetch the total count of the available viewRegister list</t>
-  </si>
-  <si>
-    <t>listnum</t>
-  </si>
-  <si>
-    <t>${viewRegister.Names}</t>
-  </si>
-  <si>
-    <t>initialize the array variable to store viewRegister</t>
-  </si>
-  <si>
-    <t>viewRegister</t>
-  </si>
-  <si>
-    <t>iterate the loop to fetxh the contact values</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>verify No in table list header</t>
+  </si>
+  <si>
+    <t>${vr.No}</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>verify the Inv.NO in table list header</t>
+  </si>
+  <si>
+    <t>${vr.Inv.No}</t>
+  </si>
+  <si>
+    <t>Inv. No.</t>
+  </si>
+  <si>
+    <t>verify Invoice date in table list header</t>
+  </si>
+  <si>
+    <t>${vr.Inv.Date}</t>
+  </si>
+  <si>
+    <t>Inv. Date</t>
+  </si>
+  <si>
+    <t>verify Customer field in table list header</t>
+  </si>
+  <si>
+    <t>${vr.Customer}</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>verify GSTIN in table list header</t>
+  </si>
+  <si>
+    <t>${vr.GSTIN}</t>
+  </si>
+  <si>
+    <t>GSTIN</t>
+  </si>
+  <si>
+    <t>verify TIN in table list header</t>
+  </si>
+  <si>
+    <t>${vr.TIN}</t>
+  </si>
+  <si>
+    <t>TIN</t>
+  </si>
+  <si>
+    <t>verify Tax Free in table list header</t>
+  </si>
+  <si>
+    <t>${vr.TaxFree}</t>
+  </si>
+  <si>
+    <t>Tax Free</t>
+  </si>
+  <si>
+    <t>verify Taxable in table list header</t>
+  </si>
+  <si>
+    <t>${vr.Taxable}</t>
+  </si>
+  <si>
+    <t>Taxable</t>
+  </si>
+  <si>
+    <t>verify Gross Amount in table list header</t>
+  </si>
+  <si>
+    <t>${vr.GAmount}</t>
+  </si>
+  <si>
+    <t>Gross Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the number of row count </t>
+  </si>
+  <si>
+    <t>rowcount</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save the count </t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
-    <t>verify the condition to iterate loop</t>
-  </si>
-  <si>
     <t>${counter}</t>
   </si>
   <si>
-    <t>${listnum}</t>
-  </si>
-  <si>
-    <t>increment the index value for the array</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>initialize a variable to store viewRegister value</t>
-  </si>
-  <si>
-    <t>viewRegisterItem</t>
-  </si>
-  <si>
-    <t>${viewRegister.Names}[${counter}]</t>
-  </si>
-  <si>
-    <t>append viewRegister value to the list of view Register</t>
-  </si>
-  <si>
-    <t>viewRegisterItems</t>
-  </si>
-  <si>
-    <t>$(array|append|${viewRegisterItems}|${viewRegisterItem})</t>
-  </si>
-  <si>
-    <t>create subarray to get the exat list of view Register values</t>
-  </si>
-  <si>
-    <t>$(array|subarray|${ledger}|1|${listnum})</t>
+    <t>${rowcount}</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}[${counter}]${vr.No.values}</t>
+  </si>
+  <si>
+    <t>noInv</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}[${counter}]${vr.Inv.No.values}</t>
+  </si>
+  <si>
+    <t>invDate</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}[${counter}]${vr.Inv.Date.values}</t>
+  </si>
+  <si>
+    <t>invCustomer</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}[${counter}]${vr.Customer.values}</t>
+  </si>
+  <si>
+    <t>invGST</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}[${counter}]${vr.GSTIN.values}</t>
+  </si>
+  <si>
+    <t>invTIN</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}[${counter}]${vr.TIN.values}</t>
+  </si>
+  <si>
+    <t>invTaxfree</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}[${counter}]${vr.TaxFree.values}</t>
+  </si>
+  <si>
+    <t>invTaxable</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}[${counter}]${vr.Taxable.values}</t>
+  </si>
+  <si>
+    <t>invGAmount</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}[${counter}]${vr.GAmount.values}</t>
+  </si>
+  <si>
+    <t>${no}</t>
+  </si>
+  <si>
+    <t>${noInv}</t>
+  </si>
+  <si>
+    <t>${invDate}</t>
+  </si>
+  <si>
+    <t>${invCustomer}</t>
+  </si>
+  <si>
+    <t>${invGST}</t>
+  </si>
+  <si>
+    <t>${invTIN}</t>
+  </si>
+  <si>
+    <t>${invTaxfree}</t>
+  </si>
+  <si>
+    <t>${invTaxable}</t>
+  </si>
+  <si>
+    <t>${invGAmount}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2579,6 +2699,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.0499893185216834"/>
@@ -2601,6 +2727,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2609,6 +2790,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2624,114 +2844,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2740,6 +2852,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2766,67 +2892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,7 +2916,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,79 +3048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2940,7 +3066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,26 +3116,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3038,6 +3164,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3053,17 +3194,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3078,28 +3213,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3108,132 +3225,141 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3275,14 +3401,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3347,6 +3473,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3388,7 +3518,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3396,15 +3526,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3419,11 +3549,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3458,52 +3588,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6541,14 +6671,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6562,12 +6692,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6579,7 +6709,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6614,10 +6744,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6632,84 +6762,84 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="53" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6721,7 +6851,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6738,7 +6868,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6755,7 +6885,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6772,7 +6902,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6789,7 +6919,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -6806,7 +6936,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -6823,7 +6953,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -6832,7 +6962,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -6840,7 +6970,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -6857,7 +6987,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -6874,7 +7004,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -6891,7 +7021,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -6908,7 +7038,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -6925,7 +7055,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -6942,7 +7072,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -6959,7 +7089,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -6976,7 +7106,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -6993,7 +7123,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7010,7 +7140,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7027,7 +7157,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7044,7 +7174,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7061,7 +7191,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7078,7 +7208,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7095,7 +7225,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7112,7 +7242,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7129,7 +7259,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7146,7 +7276,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7163,7 +7293,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7180,7 +7310,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7197,7 +7327,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7214,7 +7344,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7231,7 +7361,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7248,7 +7378,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7265,7 +7395,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7282,7 +7412,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7299,7 +7429,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7316,7 +7446,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7333,7 +7463,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7350,7 +7480,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7367,7 +7497,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7384,7 +7514,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="51"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7401,7 +7531,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7418,7 +7548,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7435,7 +7565,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7452,7 +7582,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7469,7 +7599,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="51"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7486,7 +7616,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7503,7 +7633,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7520,7 +7650,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7537,7 +7667,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7554,7 +7684,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7571,7 +7701,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7588,7 +7718,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="51"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7605,7 +7735,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="51"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7622,7 +7752,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7639,7 +7769,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7656,7 +7786,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="51"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7673,7 +7803,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="51"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7690,7 +7820,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7707,7 +7837,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7724,7 +7854,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="51"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7741,7 +7871,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="51"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7758,7 +7888,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="51"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7775,7 +7905,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="51"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7792,7 +7922,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -7809,7 +7939,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="51"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -7826,7 +7956,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="51"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -7843,7 +7973,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="51"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -7860,7 +7990,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="51"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -7877,7 +8007,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="51"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -7894,7 +8024,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="51"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -7911,7 +8041,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="51"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -7928,7 +8058,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="51"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -7945,7 +8075,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="51"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -7962,7 +8092,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="51"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -7979,7 +8109,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="51"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -7996,7 +8126,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="51"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8013,7 +8143,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="51"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8030,7 +8160,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="51"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8047,7 +8177,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="51"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8064,7 +8194,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="51"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8081,7 +8211,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="51"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8098,7 +8228,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="51"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8115,7 +8245,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="51"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8132,7 +8262,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="51"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8149,7 +8279,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="51"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8166,7 +8296,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="51"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8183,7 +8313,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="51"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8200,7 +8330,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="51"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8217,7 +8347,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="51"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8234,7 +8364,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="51"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8251,7 +8381,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="51"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8268,7 +8398,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="51"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8285,7 +8415,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="51"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8302,7 +8432,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="51"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8319,7 +8449,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="51"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8336,7 +8466,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="51"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8353,7 +8483,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="51"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8370,7 +8500,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="51"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8387,7 +8517,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="51"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8404,7 +8534,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="51"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8421,7 +8551,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="51"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8438,7 +8568,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="51"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8455,7 +8585,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="51"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8472,7 +8602,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="51"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8489,7 +8619,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="51"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8506,7 +8636,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="51"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8523,7 +8653,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="51"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8540,7 +8670,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="51"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8557,7 +8687,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="51"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8574,7 +8704,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="51"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8591,7 +8721,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="51"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8608,7 +8738,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="51"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8625,7 +8755,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="51"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8642,7 +8772,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="51"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8659,7 +8789,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="51"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8676,7 +8806,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="51"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8693,7 +8823,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="51"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8710,7 +8840,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="51"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8727,7 +8857,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="51"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8744,7 +8874,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="51"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8761,7 +8891,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="51"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8778,7 +8908,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="51"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8795,7 +8925,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="51"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -8812,7 +8942,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="51"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -8829,7 +8959,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="51"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -8846,7 +8976,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="51"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -8863,7 +8993,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="51"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -8880,7 +9010,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="51"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -8897,7 +9027,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="51"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -8914,7 +9044,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="51"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -8931,7 +9061,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="51"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -8948,7 +9078,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="51"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -8965,7 +9095,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="51"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -8982,7 +9112,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="51"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -8999,7 +9129,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="51"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9016,7 +9146,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="51"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9033,7 +9163,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="51"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9050,7 +9180,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="51"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9067,7 +9197,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="51"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9084,7 +9214,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="51"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9101,7 +9231,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="51"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9118,7 +9248,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="51"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9135,7 +9265,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="51"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9152,7 +9282,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="51"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9169,7 +9299,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="51"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9186,7 +9316,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="51"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9203,7 +9333,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="51"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9220,7 +9350,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="51"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9237,7 +9367,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="51"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9254,7 +9384,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="51"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9271,7 +9401,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="51"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9288,7 +9418,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="51"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9305,7 +9435,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="51"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9322,7 +9452,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="51"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9339,7 +9469,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="51"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9356,7 +9486,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="51"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9373,7 +9503,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="51"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9390,7 +9520,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="51"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9407,7 +9537,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="51"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9424,7 +9554,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="51"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9441,7 +9571,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="51"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9458,7 +9588,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="51"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9475,7 +9605,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="51"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9492,7 +9622,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="51"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9509,7 +9639,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="51"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9526,7 +9656,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="51"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9543,7 +9673,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="51"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9560,7 +9690,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="51"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9577,7 +9707,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="51"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9594,7 +9724,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="51"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9611,7 +9741,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="51"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9628,7 +9758,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="50"/>
+      <c r="J180" s="51"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9645,7 +9775,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="50"/>
+      <c r="J181" s="51"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9662,7 +9792,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="50"/>
+      <c r="J182" s="51"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9679,7 +9809,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="50"/>
+      <c r="J183" s="51"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9696,7 +9826,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="50"/>
+      <c r="J184" s="51"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9713,7 +9843,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="50"/>
+      <c r="J185" s="51"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9730,7 +9860,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="50"/>
+      <c r="J186" s="51"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9747,7 +9877,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="50"/>
+      <c r="J187" s="51"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9764,7 +9894,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="50"/>
+      <c r="J188" s="51"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -9827,10 +9957,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9874,14 +10004,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -9895,12 +10025,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -9912,7 +10042,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -9947,10 +10077,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -9986,12 +10116,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10011,12 +10141,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10036,7 +10166,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="50"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10061,7 +10191,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="50"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10088,7 +10218,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10113,7 +10243,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10140,7 +10270,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10165,7 +10295,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10190,7 +10320,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10215,7 +10345,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10242,7 +10372,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10267,7 +10397,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10294,7 +10424,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10319,7 +10449,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10344,7 +10474,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10369,7 +10499,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10385,16 +10515,18 @@
         <v>30</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>253</v>
+        <v>530</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>789</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="34" t="s">
+        <v>790</v>
+      </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10403,25 +10535,25 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
-      <c r="B22" s="31" t="s">
-        <v>790</v>
+      <c r="B22" s="30" t="s">
+        <v>791</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10431,24 +10563,24 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10457,25 +10589,25 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
-      <c r="B24" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>796</v>
-      </c>
-      <c r="F24" s="36" t="s">
+      <c r="B24" s="30" t="s">
         <v>797</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>799</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10485,24 +10617,24 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>799</v>
-      </c>
-      <c r="F25" s="27" t="s">
         <v>800</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>802</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10512,24 +10644,24 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
       <c r="B26" s="30" t="s">
-        <v>801</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>802</v>
-      </c>
-      <c r="F26" s="36" t="s">
         <v>803</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>805</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10539,24 +10671,24 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10566,24 +10698,24 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>808</v>
+        <v>809</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>810</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10593,24 +10725,24 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>808</v>
+        <v>812</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>813</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10619,15 +10751,25 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="B30" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10636,15 +10778,25 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
+      <c r="B31" s="30" t="s">
+        <v>818</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>819</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>820</v>
+      </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10653,15 +10805,23 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>821</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>822</v>
+      </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10670,15 +10830,23 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>823</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>824</v>
+      </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10687,15 +10855,23 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>826</v>
+      </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10704,15 +10880,23 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>827</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10721,15 +10905,23 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>829</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -10738,15 +10930,23 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>831</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10755,15 +10955,23 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>833</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -10772,15 +10980,23 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>835</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -10789,15 +11005,23 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>837</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -10806,15 +11030,23 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>839</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -10823,15 +11055,23 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>841</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -10840,15 +11080,23 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -10857,15 +11105,23 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>844</v>
+      </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -10874,15 +11130,23 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>845</v>
+      </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -10891,15 +11155,23 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>846</v>
+      </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -10908,15 +11180,23 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>847</v>
+      </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -10925,15 +11205,23 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>848</v>
+      </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="51"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -10942,15 +11230,23 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>849</v>
+      </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -10959,15 +11255,23 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>850</v>
+      </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -10976,15 +11280,23 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>851</v>
+      </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -10993,15 +11305,23 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>819</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>820</v>
+      </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11010,15 +11330,15 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
+      <c r="F53" s="37"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="51"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11027,15 +11347,15 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="26"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11044,15 +11364,15 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="26"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11061,15 +11381,15 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="26"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11078,15 +11398,15 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="26"/>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11095,15 +11415,15 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="26"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11112,15 +11432,15 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="26"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11129,15 +11449,15 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="26"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="51"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11146,15 +11466,15 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="26"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
+      <c r="F61" s="28"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="51"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11163,15 +11483,15 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="26"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
+      <c r="F62" s="28"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11180,15 +11500,15 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="26"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
+      <c r="F63" s="28"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11197,15 +11517,15 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="26"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
+      <c r="F64" s="28"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="51"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11214,15 +11534,15 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="26"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
+      <c r="F65" s="28"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="51"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11231,15 +11551,15 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="26"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
+      <c r="F66" s="28"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11248,15 +11568,15 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="26"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
+      <c r="F67" s="28"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11273,7 +11593,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="51"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11290,7 +11610,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="51"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11307,7 +11627,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="51"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11324,7 +11644,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="51"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11341,7 +11661,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11358,7 +11678,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="51"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11375,7 +11695,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="51"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11392,7 +11712,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="51"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11409,7 +11729,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="51"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11426,7 +11746,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="51"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11443,7 +11763,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="51"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11460,7 +11780,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="51"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11477,7 +11797,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="51"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11494,7 +11814,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="51"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11511,7 +11831,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="51"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11528,7 +11848,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="51"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11545,7 +11865,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="51"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11562,7 +11882,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="51"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11579,7 +11899,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="51"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -11596,7 +11916,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="51"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -11613,7 +11933,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="51"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -11630,7 +11950,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="51"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -11647,7 +11967,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="51"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -11664,7 +11984,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="51"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -11681,7 +12001,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="51"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -11698,7 +12018,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="51"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -11715,7 +12035,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="51"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -11732,7 +12052,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="51"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -11749,7 +12069,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="51"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -11766,7 +12086,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="51"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -11783,7 +12103,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="51"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -11800,7 +12120,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="51"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -11817,7 +12137,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="51"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -11834,7 +12154,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="51"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -11851,7 +12171,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="51"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -11868,7 +12188,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="51"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -11885,7 +12205,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="51"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -11902,7 +12222,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="51"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -11919,7 +12239,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="51"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -11936,7 +12256,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="51"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -11953,7 +12273,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="51"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -11970,7 +12290,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="51"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -11987,7 +12307,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="51"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12004,7 +12324,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="51"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12021,7 +12341,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="51"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12038,7 +12358,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="51"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12055,7 +12375,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="51"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12072,7 +12392,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="51"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12089,7 +12409,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="51"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12106,7 +12426,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="51"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12123,7 +12443,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="51"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12140,7 +12460,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="51"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12157,7 +12477,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="51"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12174,7 +12494,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="51"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12191,7 +12511,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="51"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12208,7 +12528,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="51"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12225,7 +12545,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="51"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12242,7 +12562,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="51"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12259,7 +12579,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="51"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12276,7 +12596,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="51"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12293,7 +12613,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="51"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12310,7 +12630,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="51"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12327,7 +12647,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="51"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12344,7 +12664,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="51"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12361,7 +12681,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="51"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12378,7 +12698,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="51"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12395,7 +12715,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="51"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12412,7 +12732,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="51"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12429,7 +12749,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="51"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12446,7 +12766,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="51"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12463,7 +12783,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="51"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12480,7 +12800,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="51"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12497,7 +12817,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="51"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12514,7 +12834,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="51"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -12531,7 +12851,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="51"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -12548,7 +12868,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="51"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -12565,7 +12885,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="51"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -12582,7 +12902,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="51"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -12599,7 +12919,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="51"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -12616,7 +12936,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="51"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -12633,7 +12953,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="51"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -12650,7 +12970,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="51"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -12667,7 +12987,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="51"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -12684,7 +13004,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="51"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -12701,7 +13021,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="51"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -12718,7 +13038,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="51"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -12735,7 +13055,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="51"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -12752,7 +13072,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="51"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -12769,7 +13089,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="51"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -12786,7 +13106,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="51"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -12803,7 +13123,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="51"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -12820,7 +13140,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="51"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -12837,7 +13157,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="51"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -12854,7 +13174,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="51"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -12871,7 +13191,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="51"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -12888,7 +13208,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="51"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -12905,7 +13225,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="51"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -12922,7 +13242,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="51"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -12939,7 +13259,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="51"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -12956,7 +13276,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="51"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -12973,7 +13293,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="51"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -12990,7 +13310,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="51"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13007,7 +13327,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="51"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -13024,7 +13344,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="51"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -13041,7 +13361,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="51"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -13058,7 +13378,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="51"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -13075,7 +13395,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="51"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -13092,7 +13412,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="51"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -13109,7 +13429,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="51"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13126,7 +13446,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="51"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13143,7 +13463,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="51"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13160,12 +13480,372 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="51"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
       <c r="N179" s="23"/>
       <c r="O179" s="22"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="51"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="23"/>
+      <c r="M180" s="21"/>
+      <c r="N180" s="23"/>
+      <c r="O180" s="22"/>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="51"/>
+      <c r="K181" s="22"/>
+      <c r="L181" s="23"/>
+      <c r="M181" s="21"/>
+      <c r="N181" s="23"/>
+      <c r="O181" s="22"/>
+    </row>
+    <row r="182" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="51"/>
+      <c r="K182" s="22"/>
+      <c r="L182" s="23"/>
+      <c r="M182" s="21"/>
+      <c r="N182" s="23"/>
+      <c r="O182" s="22"/>
+    </row>
+    <row r="183" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="51"/>
+      <c r="K183" s="22"/>
+      <c r="L183" s="23"/>
+      <c r="M183" s="21"/>
+      <c r="N183" s="23"/>
+      <c r="O183" s="22"/>
+    </row>
+    <row r="184" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A184" s="19"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="51"/>
+      <c r="K184" s="22"/>
+      <c r="L184" s="23"/>
+      <c r="M184" s="21"/>
+      <c r="N184" s="23"/>
+      <c r="O184" s="22"/>
+    </row>
+    <row r="185" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="51"/>
+      <c r="K185" s="22"/>
+      <c r="L185" s="23"/>
+      <c r="M185" s="21"/>
+      <c r="N185" s="23"/>
+      <c r="O185" s="22"/>
+    </row>
+    <row r="186" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="51"/>
+      <c r="K186" s="22"/>
+      <c r="L186" s="23"/>
+      <c r="M186" s="21"/>
+      <c r="N186" s="23"/>
+      <c r="O186" s="22"/>
+    </row>
+    <row r="187" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="51"/>
+      <c r="K187" s="22"/>
+      <c r="L187" s="23"/>
+      <c r="M187" s="21"/>
+      <c r="N187" s="23"/>
+      <c r="O187" s="22"/>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="51"/>
+      <c r="K188" s="22"/>
+      <c r="L188" s="23"/>
+      <c r="M188" s="21"/>
+      <c r="N188" s="23"/>
+      <c r="O188" s="22"/>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="51"/>
+      <c r="K189" s="22"/>
+      <c r="L189" s="23"/>
+      <c r="M189" s="21"/>
+      <c r="N189" s="23"/>
+      <c r="O189" s="22"/>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="51"/>
+      <c r="K190" s="22"/>
+      <c r="L190" s="23"/>
+      <c r="M190" s="21"/>
+      <c r="N190" s="23"/>
+      <c r="O190" s="22"/>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="51"/>
+      <c r="K191" s="22"/>
+      <c r="L191" s="23"/>
+      <c r="M191" s="21"/>
+      <c r="N191" s="23"/>
+      <c r="O191" s="22"/>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="51"/>
+      <c r="K192" s="22"/>
+      <c r="L192" s="23"/>
+      <c r="M192" s="21"/>
+      <c r="N192" s="23"/>
+      <c r="O192" s="22"/>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="51"/>
+      <c r="K193" s="22"/>
+      <c r="L193" s="23"/>
+      <c r="M193" s="21"/>
+      <c r="N193" s="23"/>
+      <c r="O193" s="22"/>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="51"/>
+      <c r="K194" s="22"/>
+      <c r="L194" s="23"/>
+      <c r="M194" s="21"/>
+      <c r="N194" s="23"/>
+      <c r="O194" s="22"/>
+    </row>
+    <row r="195" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="51"/>
+      <c r="K195" s="22"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="21"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="22"/>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="27"/>
+      <c r="J196" s="51"/>
+      <c r="K196" s="22"/>
+      <c r="L196" s="23"/>
+      <c r="M196" s="21"/>
+      <c r="N196" s="23"/>
+      <c r="O196" s="22"/>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="51"/>
+      <c r="K197" s="22"/>
+      <c r="L197" s="23"/>
+      <c r="M197" s="21"/>
+      <c r="N197" s="23"/>
+      <c r="O197" s="22"/>
+    </row>
+    <row r="198" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="27"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="27"/>
+      <c r="J198" s="51"/>
+      <c r="K198" s="22"/>
+      <c r="L198" s="23"/>
+      <c r="M198" s="21"/>
+      <c r="N198" s="23"/>
+      <c r="O198" s="22"/>
+    </row>
+    <row r="199" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="27"/>
+      <c r="G199" s="27"/>
+      <c r="H199" s="27"/>
+      <c r="I199" s="27"/>
+      <c r="J199" s="51"/>
+      <c r="K199" s="22"/>
+      <c r="L199" s="23"/>
+      <c r="M199" s="21"/>
+      <c r="N199" s="23"/>
+      <c r="O199" s="22"/>
+    </row>
+    <row r="200" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="27"/>
+      <c r="G200" s="27"/>
+      <c r="H200" s="27"/>
+      <c r="I200" s="27"/>
+      <c r="J200" s="51"/>
+      <c r="K200" s="22"/>
+      <c r="L200" s="23"/>
+      <c r="M200" s="21"/>
+      <c r="N200" s="23"/>
+      <c r="O200" s="22"/>
+    </row>
+    <row r="201" spans="6:6">
+      <c r="F201" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13174,18 +13854,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N80:N179">
+  <conditionalFormatting sqref="N101:N200">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N80,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N80,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N80,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N79">
+  <conditionalFormatting sqref="N1 N3:N100">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13197,10 +13877,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C14 C15 C16 C17 C18 C21 C22 C23 C26 C27 C28 C29 C30 C12:C13 C19:C20 C24:C25 C31:C179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C14 C15 C16 C17 C18 C21 C24 C25 C26 C27 C28 C29 C30 C31 C34 C35 C43 C44 C51 C52 C12:C13 C19:C20 C22:C23 C32:C33 C36:C42 C45:C50 C53:C57 C58:C67 C68:C200">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D14 D15 D16 D17 D18 D21 D22 D23 D26 D27 D28 D29 D30 D12:D13 D19:D20 D24:D25 D31:D179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D14 D15 D16 D17 D18 D21 D24 D25 D26 D27 D28 D29 D30 D31 D34 D35 D43 D44 D51 D52 D12:D13 D19:D20 D22:D23 D32:D33 D36:D42 D45:D50 D53:D57 D58:D67 D68:D200">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-ViewRegister.xlsx
+++ b/tests/artifact/script/UI-ViewRegister.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6800" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -57,12 +57,25 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="811">
   <si>
     <t>target</t>
   </si>
@@ -2348,21 +2361,6 @@
     <t>${click.viewRegister}</t>
   </si>
   <si>
-    <t>Validating the View Register page</t>
-  </si>
-  <si>
-    <t>validate the Heading of View Register page</t>
-  </si>
-  <si>
-    <t>${heading.viewRegister}</t>
-  </si>
-  <si>
-    <t>Validate the Type</t>
-  </si>
-  <si>
-    <t>${ChooseType}</t>
-  </si>
-  <si>
     <t>Select the Type which is present in this Text Field</t>
   </si>
   <si>
@@ -2378,30 +2376,15 @@
     <t>{ENTER}</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify From Date </t>
-  </si>
-  <si>
-    <t>${validate.FromDate}</t>
-  </si>
-  <si>
-    <t>Verify the FromDate Text Box</t>
+    <t>Enter the From Date in Text box</t>
   </si>
   <si>
     <t>${validate.FromDateBox}</t>
   </si>
   <si>
-    <t>Enter the From Date in Text box</t>
-  </si>
-  <si>
     <t>${From.DateValue}</t>
   </si>
   <si>
-    <t>Verify the ToDate Field</t>
-  </si>
-  <si>
-    <t>${Validate.ToDate}</t>
-  </si>
-  <si>
     <t>Enter the To Date in the Text box</t>
   </si>
   <si>
@@ -2423,93 +2406,120 @@
     <t>${Search.Register}</t>
   </si>
   <si>
+    <t>Search functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on search and type something </t>
+  </si>
+  <si>
+    <t>${type.searchValue}</t>
+  </si>
+  <si>
+    <t>${Search.Values.Register}</t>
+  </si>
+  <si>
+    <t>Save the text which is present after search the value</t>
+  </si>
+  <si>
+    <t>presentvalue</t>
+  </si>
+  <si>
+    <t>${present.search.values}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the expected value </t>
+  </si>
+  <si>
+    <t>expectedvalue</t>
+  </si>
+  <si>
+    <t>Compare Expected and Actual values.</t>
+  </si>
+  <si>
+    <t>${expectedvalue}</t>
+  </si>
+  <si>
+    <t>${presentvalue}</t>
+  </si>
+  <si>
+    <t>wait for a minute</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Enter empty search values</t>
+  </si>
+  <si>
+    <t>${empty.search}</t>
+  </si>
+  <si>
     <t>Click Expand Table Button</t>
   </si>
   <si>
     <t>${Click.ExpandTable}</t>
   </si>
   <si>
-    <t>Verify the View Register List Heading</t>
-  </si>
-  <si>
-    <t>${verify.RegisterList}</t>
-  </si>
-  <si>
-    <t>fetch the total count of the available viewRegister list</t>
-  </si>
-  <si>
-    <t>listnum</t>
-  </si>
-  <si>
-    <t>${viewRegister.Names}</t>
-  </si>
-  <si>
-    <t>initialize the array variable to store viewRegister</t>
-  </si>
-  <si>
-    <t>viewRegister</t>
-  </si>
-  <si>
-    <t>iterate the loop to fetxh the contact values</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t xml:space="preserve">check the number of row count </t>
+  </si>
+  <si>
+    <t>rowcount</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save the count </t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
-    <t>verify the condition to iterate loop</t>
-  </si>
-  <si>
     <t>${counter}</t>
   </si>
   <si>
-    <t>${listnum}</t>
-  </si>
-  <si>
-    <t>increment the index value for the array</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>initialize a variable to store viewRegister value</t>
-  </si>
-  <si>
-    <t>viewRegisterItem</t>
-  </si>
-  <si>
-    <t>${viewRegister.Names}[${counter}]</t>
-  </si>
-  <si>
-    <t>append viewRegister value to the list of view Register</t>
-  </si>
-  <si>
-    <t>viewRegisterItems</t>
-  </si>
-  <si>
-    <t>$(array|append|${viewRegisterItems}|${viewRegisterItem})</t>
-  </si>
-  <si>
-    <t>create subarray to get the exat list of view Register values</t>
-  </si>
-  <si>
-    <t>$(array|subarray|${ledger}|1|${listnum})</t>
+    <t>${rowcount}</t>
+  </si>
+  <si>
+    <t>invCustomer</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}[${counter}]${vr.Customer.values}</t>
+  </si>
+  <si>
+    <t>${invCustomer}</t>
+  </si>
+  <si>
+    <t>click on Invoice number</t>
+  </si>
+  <si>
+    <t>${invoice.link}</t>
+  </si>
+  <si>
+    <t>${viewRegister.button}</t>
+  </si>
+  <si>
+    <t>${voucher.presentvalues}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2601,6 +2611,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2609,6 +2674,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2624,114 +2728,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2740,6 +2736,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2766,67 +2776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,7 +2800,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,79 +2932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2940,7 +2950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,26 +3000,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3038,6 +3048,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3053,17 +3078,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3078,28 +3097,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3108,132 +3109,141 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3275,14 +3285,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3345,6 +3355,14 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3458,52 +3476,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6541,14 +6559,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6562,12 +6580,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6579,7 +6597,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6614,10 +6632,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="46" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6632,84 +6650,84 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="37" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="54" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="49"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6721,7 +6739,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6738,7 +6756,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6755,7 +6773,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6772,7 +6790,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6789,7 +6807,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -6806,7 +6824,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -6823,7 +6841,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="52"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -6832,7 +6850,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="62"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -6840,7 +6858,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -6857,7 +6875,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -6874,7 +6892,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -6891,7 +6909,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -6908,7 +6926,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -6925,7 +6943,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="52"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -6942,7 +6960,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -6959,7 +6977,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -6976,7 +6994,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -6993,7 +7011,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7010,7 +7028,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7027,7 +7045,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7044,7 +7062,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7061,7 +7079,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7078,7 +7096,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="52"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7095,7 +7113,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7112,7 +7130,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7129,7 +7147,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="52"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7146,7 +7164,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="52"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7163,7 +7181,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7180,7 +7198,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="52"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7197,7 +7215,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="52"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7214,7 +7232,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7231,7 +7249,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="52"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7248,7 +7266,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7265,7 +7283,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="52"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7282,7 +7300,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="52"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7299,7 +7317,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="52"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7316,7 +7334,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7333,7 +7351,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="52"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7350,7 +7368,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7367,7 +7385,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7384,7 +7402,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7401,7 +7419,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="52"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7418,7 +7436,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="52"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7435,7 +7453,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7452,7 +7470,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="52"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7469,7 +7487,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="52"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7486,7 +7504,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="52"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7503,7 +7521,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="52"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7520,7 +7538,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="52"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7537,7 +7555,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="52"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7554,7 +7572,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="52"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7571,7 +7589,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="52"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7588,7 +7606,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="52"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7605,7 +7623,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="52"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7622,7 +7640,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="52"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7639,7 +7657,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="52"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7656,7 +7674,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="52"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7673,7 +7691,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="52"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7690,7 +7708,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="52"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7707,7 +7725,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="52"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7724,7 +7742,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="52"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7741,7 +7759,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="52"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7758,7 +7776,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="52"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7775,7 +7793,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="52"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7792,7 +7810,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="52"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -7809,7 +7827,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="52"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -7826,7 +7844,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="52"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -7843,7 +7861,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="52"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -7860,7 +7878,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="52"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -7877,7 +7895,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="52"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -7894,7 +7912,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="52"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -7911,7 +7929,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="52"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -7928,7 +7946,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="52"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -7945,7 +7963,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="52"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -7962,7 +7980,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="52"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -7979,7 +7997,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="52"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -7996,7 +8014,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="52"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8013,7 +8031,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="52"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8030,7 +8048,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="52"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8047,7 +8065,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="52"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8064,7 +8082,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="52"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8081,7 +8099,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="52"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8098,7 +8116,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="52"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8115,7 +8133,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="52"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8132,7 +8150,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="52"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8149,7 +8167,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="52"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8166,7 +8184,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="52"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8183,7 +8201,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="52"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8200,7 +8218,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="52"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8217,7 +8235,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="52"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8234,7 +8252,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="52"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8251,7 +8269,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="52"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8268,7 +8286,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="52"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8285,7 +8303,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="52"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8302,7 +8320,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="52"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8319,7 +8337,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="52"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8336,7 +8354,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="52"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8353,7 +8371,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="52"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8370,7 +8388,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="52"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8387,7 +8405,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="52"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8404,7 +8422,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="52"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8421,7 +8439,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="52"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8438,7 +8456,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="52"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8455,7 +8473,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="52"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8472,7 +8490,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="52"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8489,7 +8507,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="52"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8506,7 +8524,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="52"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8523,7 +8541,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="52"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8540,7 +8558,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="52"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8557,7 +8575,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="52"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8574,7 +8592,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="52"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8591,7 +8609,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="52"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8608,7 +8626,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="52"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8625,7 +8643,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="52"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8642,7 +8660,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="52"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8659,7 +8677,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="52"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8676,7 +8694,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="52"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8693,7 +8711,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="52"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8710,7 +8728,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="52"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8727,7 +8745,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="52"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8744,7 +8762,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="52"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8761,7 +8779,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="52"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8778,7 +8796,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="52"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8795,7 +8813,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="52"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -8812,7 +8830,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="52"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -8829,7 +8847,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="52"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -8846,7 +8864,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="52"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -8863,7 +8881,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="52"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -8880,7 +8898,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="52"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -8897,7 +8915,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="52"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -8914,7 +8932,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="52"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -8931,7 +8949,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="52"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -8948,7 +8966,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="52"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -8965,7 +8983,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="52"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -8982,7 +9000,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="52"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -8999,7 +9017,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="52"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9016,7 +9034,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="52"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9033,7 +9051,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="52"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9050,7 +9068,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="52"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9067,7 +9085,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="52"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9084,7 +9102,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="52"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9101,7 +9119,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="52"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9118,7 +9136,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="52"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9135,7 +9153,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="52"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9152,7 +9170,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="52"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9169,7 +9187,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="52"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9186,7 +9204,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="52"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9203,7 +9221,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="52"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9220,7 +9238,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="52"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9237,7 +9255,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="52"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9254,7 +9272,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="52"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9271,7 +9289,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="52"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9288,7 +9306,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="52"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9305,7 +9323,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="52"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9322,7 +9340,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="52"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9339,7 +9357,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="52"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9356,7 +9374,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="52"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9373,7 +9391,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="52"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9390,7 +9408,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="52"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9407,7 +9425,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="52"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9424,7 +9442,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="52"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9441,7 +9459,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="52"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9458,7 +9476,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="52"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9475,7 +9493,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="52"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9492,7 +9510,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="52"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9509,7 +9527,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="52"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9526,7 +9544,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="52"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9543,7 +9561,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="52"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9560,7 +9578,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="52"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9577,7 +9595,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="52"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9594,7 +9612,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="52"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9611,7 +9629,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="52"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9628,7 +9646,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="50"/>
+      <c r="J180" s="52"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9645,7 +9663,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="50"/>
+      <c r="J181" s="52"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9662,7 +9680,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="50"/>
+      <c r="J182" s="52"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9679,7 +9697,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="50"/>
+      <c r="J183" s="52"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9696,7 +9714,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="50"/>
+      <c r="J184" s="52"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9713,7 +9731,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="50"/>
+      <c r="J185" s="52"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9730,7 +9748,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="50"/>
+      <c r="J186" s="52"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9747,7 +9765,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="50"/>
+      <c r="J187" s="52"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9764,7 +9782,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="50"/>
+      <c r="J188" s="52"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -9827,10 +9845,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9874,14 +9892,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -9895,12 +9913,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -9912,7 +9930,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -9947,10 +9965,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="46" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -9986,12 +10004,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10011,12 +10029,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10036,7 +10054,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="50"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10061,7 +10079,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="50"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10069,26 +10087,26 @@
       <c r="O8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="30" t="s">
         <v>761</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>762</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>253</v>
+        <v>692</v>
       </c>
       <c r="E9" s="27" t="s">
+        <v>762</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>763</v>
       </c>
-      <c r="F9" s="28"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10097,23 +10115,23 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="F10" s="28" t="s">
         <v>765</v>
       </c>
-      <c r="F10" s="28"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10129,7 +10147,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>767</v>
@@ -10140,7 +10158,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10149,23 +10167,25 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>769</v>
+      </c>
       <c r="C12" s="26" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10174,23 +10194,23 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
-      <c r="B13" s="31" t="s">
-        <v>771</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>772</v>
+      <c r="D13" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>773</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10200,7 +10220,7 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>30</v>
@@ -10209,13 +10229,13 @@
         <v>253</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10223,26 +10243,28 @@
       <c r="O14" s="22"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="30" t="s">
-        <v>775</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>776</v>
+      <c r="E15" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>779</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="52"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10251,23 +10273,25 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="35" t="s">
+        <v>780</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="F16" s="28"/>
+      <c r="D16" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>782</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10276,25 +10300,25 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="35" t="s">
+        <v>783</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>779</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>781</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10303,23 +10327,25 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
-      <c r="B18" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="F18" s="28"/>
+      <c r="B18" s="35" t="s">
+        <v>785</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>786</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>787</v>
+      </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10329,22 +10355,22 @@
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
       <c r="B19" s="30" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>253</v>
+        <v>715</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10354,22 +10380,24 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="30" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="F20" s="28"/>
+        <v>707</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>791</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10379,22 +10407,22 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="30" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="52"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10403,8 +10431,8 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
-      <c r="B22" s="31" t="s">
-        <v>790</v>
+      <c r="B22" s="30" t="s">
+        <v>794</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
@@ -10413,15 +10441,15 @@
         <v>483</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>792</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+        <v>796</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10431,24 +10459,24 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>792</v>
+        <v>797</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>799</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10457,25 +10485,23 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
-      <c r="B24" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="E24" s="35" t="s">
-        <v>796</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>797</v>
+      <c r="E24" s="37" t="s">
+        <v>800</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>801</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10484,25 +10510,23 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
-      <c r="B25" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="35" t="s">
-        <v>799</v>
+      <c r="E25" s="37" t="s">
+        <v>802</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10511,25 +10535,23 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
-      <c r="B26" s="30" t="s">
-        <v>801</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>802</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>803</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>804</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>805</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10538,16 +10560,14 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
-      <c r="B27" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>805</v>
       </c>
       <c r="F27" s="28" t="s">
@@ -10556,7 +10576,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10565,25 +10585,21 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
-      <c r="B28" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C28" s="34" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>808</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>809</v>
-      </c>
+      <c r="D28" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>806</v>
+      </c>
+      <c r="F28" s="38"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10592,25 +10608,23 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
-      <c r="B29" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>808</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>811</v>
+      <c r="B29" s="30"/>
+      <c r="C29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>799</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10619,15 +10633,25 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>779</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="52"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10636,15 +10660,25 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
+      <c r="B31" s="35" t="s">
+        <v>780</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>782</v>
+      </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10653,15 +10687,23 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="B32" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>808</v>
+      </c>
+      <c r="F32" s="28"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10670,15 +10712,21 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="F33" s="28"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="52"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10687,15 +10735,21 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="F34" s="28"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="52"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10704,15 +10758,21 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="F35" s="28"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10721,15 +10781,19 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>620</v>
+      </c>
       <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="52"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -10738,15 +10802,12 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="B37" s="30"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="52"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10755,15 +10816,15 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="26"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -10772,15 +10833,15 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="52"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -10789,15 +10850,15 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="26"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -10806,15 +10867,15 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="26"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="52"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -10823,15 +10884,15 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="26"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="52"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -10840,15 +10901,15 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="26"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="52"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -10857,15 +10918,15 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="26"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -10874,15 +10935,15 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="52"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -10891,15 +10952,15 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="26"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -10908,15 +10969,15 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="26"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -10925,15 +10986,15 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="26"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -10950,7 +11011,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="52"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -10967,7 +11028,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="52"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -10984,7 +11045,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11001,7 +11062,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="52"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11018,7 +11079,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="52"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11035,7 +11096,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="52"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11052,7 +11113,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="52"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11069,7 +11130,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="52"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11086,7 +11147,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="52"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11103,7 +11164,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="52"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11120,7 +11181,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="52"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11137,7 +11198,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="52"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11154,7 +11215,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="52"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11171,7 +11232,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="52"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11188,7 +11249,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="52"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11205,7 +11266,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="52"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11222,7 +11283,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="52"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11239,7 +11300,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="52"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11256,7 +11317,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="52"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11273,7 +11334,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="52"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11290,7 +11351,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="52"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11307,7 +11368,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="52"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11324,7 +11385,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="52"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11341,7 +11402,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="52"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11358,7 +11419,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="52"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11375,7 +11436,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="52"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11392,7 +11453,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="52"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11409,7 +11470,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="52"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11426,7 +11487,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="52"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11443,7 +11504,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="52"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11460,7 +11521,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="52"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11477,7 +11538,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="52"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11494,7 +11555,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="52"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11511,7 +11572,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="52"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11528,7 +11589,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="52"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11545,7 +11606,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="52"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11562,7 +11623,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="52"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11579,7 +11640,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="52"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -11596,7 +11657,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="52"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -11613,7 +11674,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="52"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -11630,7 +11691,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="52"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -11647,7 +11708,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="52"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -11664,7 +11725,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="52"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -11681,7 +11742,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="52"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -11698,7 +11759,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="52"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -11715,7 +11776,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="52"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -11732,7 +11793,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="52"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -11749,7 +11810,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="52"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -11766,7 +11827,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="52"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -11783,7 +11844,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="52"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -11800,7 +11861,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="52"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -11817,7 +11878,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="52"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -11834,7 +11895,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="52"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -11851,7 +11912,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="52"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -11868,7 +11929,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="52"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -11885,7 +11946,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="52"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -11902,7 +11963,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="52"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -11919,7 +11980,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="52"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -11936,7 +11997,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="52"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -11953,7 +12014,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="52"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -11970,7 +12031,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="52"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -11987,7 +12048,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="52"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12004,7 +12065,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="52"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12021,7 +12082,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="52"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12038,7 +12099,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="52"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12055,7 +12116,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="52"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12072,7 +12133,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="52"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12089,7 +12150,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="52"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12106,7 +12167,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="52"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12123,7 +12184,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="52"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12140,7 +12201,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="52"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12157,7 +12218,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="52"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12174,7 +12235,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="52"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12191,7 +12252,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="52"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12208,7 +12269,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="52"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12225,7 +12286,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="52"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12242,7 +12303,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="52"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12259,7 +12320,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="52"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12276,7 +12337,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="52"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12293,7 +12354,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="52"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12310,7 +12371,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="52"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12327,7 +12388,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="52"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12344,7 +12405,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="52"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12361,7 +12422,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="52"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12378,7 +12439,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="52"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12395,7 +12456,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="52"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12412,7 +12473,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="52"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12429,7 +12490,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="52"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12446,7 +12507,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="52"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12463,7 +12524,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="52"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12480,7 +12541,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="52"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12497,7 +12558,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="52"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12514,7 +12575,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="52"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -12531,7 +12592,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="52"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -12548,7 +12609,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="52"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -12565,7 +12626,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="52"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -12582,7 +12643,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="52"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -12599,7 +12660,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="52"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -12616,7 +12677,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="52"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -12633,7 +12694,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="52"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -12650,7 +12711,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="52"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -12667,7 +12728,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="52"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -12684,7 +12745,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="52"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -12701,7 +12762,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="52"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -12718,7 +12779,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="52"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -12735,7 +12796,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="52"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -12752,7 +12813,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="52"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -12769,7 +12830,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="52"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -12786,7 +12847,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="52"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -12803,7 +12864,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="52"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -12820,7 +12881,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="52"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -12837,7 +12898,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="52"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -12854,7 +12915,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="52"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -12871,7 +12932,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="52"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -12888,7 +12949,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="52"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -12905,7 +12966,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="52"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -12922,7 +12983,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="52"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -12939,7 +13000,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="52"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -12956,7 +13017,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="52"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -12973,7 +13034,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="52"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -12990,7 +13051,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="52"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13007,7 +13068,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="52"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -13024,7 +13085,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="52"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -13041,7 +13102,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="52"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -13058,7 +13119,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="52"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -13075,7 +13136,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="52"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -13092,7 +13153,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="52"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -13109,7 +13170,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="52"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13126,7 +13187,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="52"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13143,7 +13204,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="52"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13160,12 +13221,49 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="52"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
       <c r="N179" s="23"/>
       <c r="O179" s="22"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="52"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="23"/>
+      <c r="M180" s="21"/>
+      <c r="N180" s="23"/>
+      <c r="O180" s="22"/>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="52"/>
+      <c r="K181" s="22"/>
+      <c r="L181" s="23"/>
+      <c r="M181" s="21"/>
+      <c r="N181" s="23"/>
+      <c r="O181" s="22"/>
+    </row>
+    <row r="182" spans="6:6">
+      <c r="F182" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13174,18 +13272,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N80:N179">
+  <conditionalFormatting sqref="N82:N181">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N80,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N82,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N80,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N82,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N80,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N82,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N79">
+  <conditionalFormatting sqref="N1 N3:N81">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13197,10 +13295,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C14 C15 C16 C17 C18 C21 C22 C23 C26 C27 C28 C29 C30 C12:C13 C19:C20 C24:C25 C31:C179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C21 C22 C23 C26 C27 C28 C29 C30 C31 C32 C33 C38 C19:C20 C24:C25 C34:C36 C39:C48 C49:C181">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D14 D15 D16 D17 D18 D21 D22 D23 D26 D27 D28 D29 D30 D12:D13 D19:D20 D24:D25 D31:D179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D21 D22 D23 D26 D27 D28 D29 D30 D31 D32 D33 D38 D19:D20 D24:D25 D34:D36 D39:D48 D49:D181">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-ViewRegister.xlsx
+++ b/tests/artifact/script/UI-ViewRegister.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6800" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -57,12 +57,25 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="811">
   <si>
     <t>target</t>
   </si>
@@ -2348,21 +2361,6 @@
     <t>${click.viewRegister}</t>
   </si>
   <si>
-    <t>Validating the View Register page</t>
-  </si>
-  <si>
-    <t>validate the Heading of View Register page</t>
-  </si>
-  <si>
-    <t>${heading.viewRegister}</t>
-  </si>
-  <si>
-    <t>Validate the Type</t>
-  </si>
-  <si>
-    <t>${ChooseType}</t>
-  </si>
-  <si>
     <t>Select the Type which is present in this Text Field</t>
   </si>
   <si>
@@ -2378,30 +2376,15 @@
     <t>{ENTER}</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify From Date </t>
-  </si>
-  <si>
-    <t>${validate.FromDate}</t>
-  </si>
-  <si>
-    <t>Verify the FromDate Text Box</t>
+    <t>Enter the From Date in Text box</t>
   </si>
   <si>
     <t>${validate.FromDateBox}</t>
   </si>
   <si>
-    <t>Enter the From Date in Text box</t>
-  </si>
-  <si>
     <t>${From.DateValue}</t>
   </si>
   <si>
-    <t>Verify the ToDate Field</t>
-  </si>
-  <si>
-    <t>${Validate.ToDate}</t>
-  </si>
-  <si>
     <t>Enter the To Date in the Text box</t>
   </si>
   <si>
@@ -2423,93 +2406,120 @@
     <t>${Search.Register}</t>
   </si>
   <si>
+    <t>Search functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on search and type something </t>
+  </si>
+  <si>
+    <t>${type.searchValue}</t>
+  </si>
+  <si>
+    <t>${Search.Values.Register}</t>
+  </si>
+  <si>
+    <t>Save the text which is present after search the value</t>
+  </si>
+  <si>
+    <t>presentvalue</t>
+  </si>
+  <si>
+    <t>${present.search.values}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the expected value </t>
+  </si>
+  <si>
+    <t>expectedvalue</t>
+  </si>
+  <si>
+    <t>Compare Expected and Actual values.</t>
+  </si>
+  <si>
+    <t>${expectedvalue}</t>
+  </si>
+  <si>
+    <t>${presentvalue}</t>
+  </si>
+  <si>
+    <t>wait for a minute</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Enter empty search values</t>
+  </si>
+  <si>
+    <t>${empty.search}</t>
+  </si>
+  <si>
     <t>Click Expand Table Button</t>
   </si>
   <si>
     <t>${Click.ExpandTable}</t>
   </si>
   <si>
-    <t>Verify the View Register List Heading</t>
-  </si>
-  <si>
-    <t>${verify.RegisterList}</t>
-  </si>
-  <si>
-    <t>fetch the total count of the available viewRegister list</t>
-  </si>
-  <si>
-    <t>listnum</t>
-  </si>
-  <si>
-    <t>${viewRegister.Names}</t>
-  </si>
-  <si>
-    <t>initialize the array variable to store viewRegister</t>
-  </si>
-  <si>
-    <t>viewRegister</t>
-  </si>
-  <si>
-    <t>iterate the loop to fetxh the contact values</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t xml:space="preserve">check the number of row count </t>
+  </si>
+  <si>
+    <t>rowcount</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save the count </t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
-    <t>verify the condition to iterate loop</t>
-  </si>
-  <si>
     <t>${counter}</t>
   </si>
   <si>
-    <t>${listnum}</t>
-  </si>
-  <si>
-    <t>increment the index value for the array</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>initialize a variable to store viewRegister value</t>
-  </si>
-  <si>
-    <t>viewRegisterItem</t>
-  </si>
-  <si>
-    <t>${viewRegister.Names}[${counter}]</t>
-  </si>
-  <si>
-    <t>append viewRegister value to the list of view Register</t>
-  </si>
-  <si>
-    <t>viewRegisterItems</t>
-  </si>
-  <si>
-    <t>$(array|append|${viewRegisterItems}|${viewRegisterItem})</t>
-  </si>
-  <si>
-    <t>create subarray to get the exat list of view Register values</t>
-  </si>
-  <si>
-    <t>$(array|subarray|${ledger}|1|${listnum})</t>
+    <t>${rowcount}</t>
+  </si>
+  <si>
+    <t>invCustomer</t>
+  </si>
+  <si>
+    <t>${vr.table.row.xpath}[${counter}]${vr.Customer.values}</t>
+  </si>
+  <si>
+    <t>${invCustomer}</t>
+  </si>
+  <si>
+    <t>click on Invoice number</t>
+  </si>
+  <si>
+    <t>${invoice.link}</t>
+  </si>
+  <si>
+    <t>${viewRegister.button}</t>
+  </si>
+  <si>
+    <t>${voucher.presentvalues}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2601,6 +2611,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2609,6 +2674,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2624,114 +2728,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2740,6 +2736,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2766,67 +2776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,7 +2800,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,79 +2932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2940,7 +2950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,26 +3000,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3038,6 +3048,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3053,17 +3078,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3078,28 +3097,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3108,132 +3109,141 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3275,14 +3285,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3345,6 +3355,14 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3458,52 +3476,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6541,14 +6559,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6562,12 +6580,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6579,7 +6597,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6614,10 +6632,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="46" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6632,84 +6650,84 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="37" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="54" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="49"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6721,7 +6739,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6738,7 +6756,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6755,7 +6773,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6772,7 +6790,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6789,7 +6807,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -6806,7 +6824,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -6823,7 +6841,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="52"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -6832,7 +6850,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="62"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -6840,7 +6858,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -6857,7 +6875,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -6874,7 +6892,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -6891,7 +6909,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -6908,7 +6926,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -6925,7 +6943,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="52"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -6942,7 +6960,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -6959,7 +6977,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -6976,7 +6994,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -6993,7 +7011,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7010,7 +7028,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7027,7 +7045,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7044,7 +7062,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7061,7 +7079,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7078,7 +7096,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="52"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7095,7 +7113,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7112,7 +7130,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7129,7 +7147,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="52"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7146,7 +7164,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="52"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7163,7 +7181,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7180,7 +7198,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="52"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7197,7 +7215,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="52"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7214,7 +7232,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7231,7 +7249,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="52"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7248,7 +7266,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7265,7 +7283,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="52"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7282,7 +7300,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="52"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7299,7 +7317,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="52"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7316,7 +7334,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7333,7 +7351,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="52"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7350,7 +7368,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7367,7 +7385,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7384,7 +7402,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7401,7 +7419,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="52"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7418,7 +7436,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="52"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7435,7 +7453,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7452,7 +7470,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="52"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7469,7 +7487,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="52"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7486,7 +7504,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="52"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7503,7 +7521,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="52"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7520,7 +7538,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="52"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7537,7 +7555,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="52"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7554,7 +7572,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="52"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7571,7 +7589,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="52"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7588,7 +7606,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="52"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7605,7 +7623,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="52"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7622,7 +7640,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="52"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7639,7 +7657,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="52"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7656,7 +7674,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="52"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7673,7 +7691,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="52"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7690,7 +7708,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="52"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7707,7 +7725,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="52"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7724,7 +7742,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="52"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7741,7 +7759,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="52"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7758,7 +7776,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="52"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7775,7 +7793,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="52"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7792,7 +7810,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="52"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -7809,7 +7827,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="52"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -7826,7 +7844,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="52"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -7843,7 +7861,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="52"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -7860,7 +7878,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="52"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -7877,7 +7895,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="52"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -7894,7 +7912,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="52"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -7911,7 +7929,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="52"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -7928,7 +7946,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="52"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -7945,7 +7963,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="52"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -7962,7 +7980,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="52"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -7979,7 +7997,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="52"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -7996,7 +8014,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="52"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8013,7 +8031,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="52"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8030,7 +8048,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="52"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8047,7 +8065,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="52"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8064,7 +8082,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="52"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8081,7 +8099,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="52"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8098,7 +8116,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="52"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8115,7 +8133,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="52"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8132,7 +8150,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="52"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8149,7 +8167,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="52"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8166,7 +8184,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="52"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8183,7 +8201,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="52"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8200,7 +8218,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="52"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8217,7 +8235,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="52"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8234,7 +8252,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="52"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8251,7 +8269,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="52"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8268,7 +8286,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="52"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8285,7 +8303,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="52"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8302,7 +8320,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="52"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8319,7 +8337,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="52"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8336,7 +8354,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="52"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8353,7 +8371,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="52"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8370,7 +8388,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="52"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8387,7 +8405,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="52"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8404,7 +8422,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="52"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8421,7 +8439,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="52"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8438,7 +8456,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="52"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8455,7 +8473,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="52"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8472,7 +8490,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="52"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8489,7 +8507,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="52"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8506,7 +8524,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="52"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8523,7 +8541,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="52"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8540,7 +8558,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="52"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8557,7 +8575,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="52"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8574,7 +8592,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="52"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8591,7 +8609,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="52"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8608,7 +8626,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="52"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8625,7 +8643,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="52"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8642,7 +8660,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="52"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8659,7 +8677,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="52"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8676,7 +8694,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="52"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8693,7 +8711,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="52"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8710,7 +8728,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="52"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8727,7 +8745,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="52"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8744,7 +8762,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="52"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8761,7 +8779,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="52"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8778,7 +8796,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="52"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8795,7 +8813,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="52"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -8812,7 +8830,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="52"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -8829,7 +8847,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="52"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -8846,7 +8864,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="52"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -8863,7 +8881,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="52"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -8880,7 +8898,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="52"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -8897,7 +8915,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="52"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -8914,7 +8932,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="52"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -8931,7 +8949,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="52"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -8948,7 +8966,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="52"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -8965,7 +8983,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="52"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -8982,7 +9000,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="52"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -8999,7 +9017,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="52"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9016,7 +9034,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="52"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9033,7 +9051,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="52"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9050,7 +9068,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="52"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9067,7 +9085,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="52"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9084,7 +9102,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="52"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9101,7 +9119,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="52"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9118,7 +9136,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="52"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9135,7 +9153,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="52"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9152,7 +9170,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="52"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9169,7 +9187,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="52"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9186,7 +9204,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="52"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9203,7 +9221,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="52"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9220,7 +9238,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="52"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9237,7 +9255,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="52"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9254,7 +9272,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="52"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9271,7 +9289,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="52"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9288,7 +9306,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="52"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9305,7 +9323,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="52"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9322,7 +9340,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="52"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9339,7 +9357,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="52"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9356,7 +9374,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="52"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9373,7 +9391,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="52"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9390,7 +9408,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="52"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9407,7 +9425,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="52"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9424,7 +9442,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="52"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9441,7 +9459,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="52"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9458,7 +9476,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="52"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9475,7 +9493,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="52"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9492,7 +9510,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="52"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9509,7 +9527,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="52"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9526,7 +9544,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="52"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9543,7 +9561,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="52"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9560,7 +9578,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="52"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9577,7 +9595,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="52"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9594,7 +9612,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="52"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9611,7 +9629,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="52"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9628,7 +9646,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="50"/>
+      <c r="J180" s="52"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9645,7 +9663,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="50"/>
+      <c r="J181" s="52"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9662,7 +9680,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="50"/>
+      <c r="J182" s="52"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9679,7 +9697,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="50"/>
+      <c r="J183" s="52"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9696,7 +9714,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="50"/>
+      <c r="J184" s="52"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9713,7 +9731,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="50"/>
+      <c r="J185" s="52"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9730,7 +9748,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="50"/>
+      <c r="J186" s="52"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9747,7 +9765,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="50"/>
+      <c r="J187" s="52"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9764,7 +9782,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="50"/>
+      <c r="J188" s="52"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -9827,10 +9845,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9874,14 +9892,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -9895,12 +9913,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -9912,7 +9930,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -9947,10 +9965,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="46" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -9986,12 +10004,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10011,12 +10029,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10036,7 +10054,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="50"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10061,7 +10079,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="50"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10069,26 +10087,26 @@
       <c r="O8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="30" t="s">
         <v>761</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>762</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>253</v>
+        <v>692</v>
       </c>
       <c r="E9" s="27" t="s">
+        <v>762</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>763</v>
       </c>
-      <c r="F9" s="28"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10097,23 +10115,23 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="F10" s="28" t="s">
         <v>765</v>
       </c>
-      <c r="F10" s="28"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10129,7 +10147,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>767</v>
@@ -10140,7 +10158,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10149,23 +10167,25 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>769</v>
+      </c>
       <c r="C12" s="26" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10174,23 +10194,23 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
-      <c r="B13" s="31" t="s">
-        <v>771</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>772</v>
+      <c r="D13" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>773</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10200,7 +10220,7 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>30</v>
@@ -10209,13 +10229,13 @@
         <v>253</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10223,26 +10243,28 @@
       <c r="O14" s="22"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="30" t="s">
-        <v>775</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>776</v>
+      <c r="E15" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>779</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="52"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10251,23 +10273,25 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="35" t="s">
+        <v>780</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="F16" s="28"/>
+      <c r="D16" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>782</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10276,25 +10300,25 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="35" t="s">
+        <v>783</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>779</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>781</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10303,23 +10327,25 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
-      <c r="B18" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="F18" s="28"/>
+      <c r="B18" s="35" t="s">
+        <v>785</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>786</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>787</v>
+      </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10329,22 +10355,22 @@
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
       <c r="B19" s="30" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>253</v>
+        <v>715</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10354,22 +10380,24 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="30" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="F20" s="28"/>
+        <v>707</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>791</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10379,22 +10407,22 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="30" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="52"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10403,8 +10431,8 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
-      <c r="B22" s="31" t="s">
-        <v>790</v>
+      <c r="B22" s="30" t="s">
+        <v>794</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
@@ -10413,15 +10441,15 @@
         <v>483</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>792</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+        <v>796</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10431,24 +10459,24 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>792</v>
+        <v>797</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>799</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10457,25 +10485,23 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
-      <c r="B24" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="E24" s="35" t="s">
-        <v>796</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>797</v>
+      <c r="E24" s="37" t="s">
+        <v>800</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>801</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10484,25 +10510,23 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
-      <c r="B25" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="35" t="s">
-        <v>799</v>
+      <c r="E25" s="37" t="s">
+        <v>802</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10511,25 +10535,23 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
-      <c r="B26" s="30" t="s">
-        <v>801</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>802</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>803</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>804</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>805</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10538,16 +10560,14 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
-      <c r="B27" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>805</v>
       </c>
       <c r="F27" s="28" t="s">
@@ -10556,7 +10576,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10565,25 +10585,21 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
-      <c r="B28" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C28" s="34" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>808</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>809</v>
-      </c>
+      <c r="D28" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>806</v>
+      </c>
+      <c r="F28" s="38"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10592,25 +10608,23 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
-      <c r="B29" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>808</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>811</v>
+      <c r="B29" s="30"/>
+      <c r="C29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>799</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10619,15 +10633,25 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>779</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="52"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10636,15 +10660,25 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
+      <c r="B31" s="35" t="s">
+        <v>780</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>782</v>
+      </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10653,15 +10687,23 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="B32" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>808</v>
+      </c>
+      <c r="F32" s="28"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10670,15 +10712,21 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="F33" s="28"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="52"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10687,15 +10735,21 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="F34" s="28"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="52"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10704,15 +10758,21 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="F35" s="28"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10721,15 +10781,19 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>620</v>
+      </c>
       <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="52"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -10738,15 +10802,12 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="B37" s="30"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="52"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10755,15 +10816,15 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="26"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -10772,15 +10833,15 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="52"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -10789,15 +10850,15 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="26"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -10806,15 +10867,15 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="26"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="52"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -10823,15 +10884,15 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="26"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="52"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -10840,15 +10901,15 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="26"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="52"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -10857,15 +10918,15 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="26"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -10874,15 +10935,15 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="52"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -10891,15 +10952,15 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="26"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -10908,15 +10969,15 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="26"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -10925,15 +10986,15 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="26"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -10950,7 +11011,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="52"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -10967,7 +11028,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="52"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -10984,7 +11045,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11001,7 +11062,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="52"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11018,7 +11079,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="52"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11035,7 +11096,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="52"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11052,7 +11113,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="52"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11069,7 +11130,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="52"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11086,7 +11147,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="52"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11103,7 +11164,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="52"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11120,7 +11181,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="52"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11137,7 +11198,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="52"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11154,7 +11215,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="52"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11171,7 +11232,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="52"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11188,7 +11249,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="52"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11205,7 +11266,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="52"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11222,7 +11283,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="52"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11239,7 +11300,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="52"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11256,7 +11317,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="52"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11273,7 +11334,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="52"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11290,7 +11351,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="52"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11307,7 +11368,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="52"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11324,7 +11385,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="52"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11341,7 +11402,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="52"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11358,7 +11419,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="52"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11375,7 +11436,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="52"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11392,7 +11453,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="52"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11409,7 +11470,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="52"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11426,7 +11487,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="52"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11443,7 +11504,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="52"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11460,7 +11521,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="52"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11477,7 +11538,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="52"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11494,7 +11555,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="52"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11511,7 +11572,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="52"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11528,7 +11589,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="52"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11545,7 +11606,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="52"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11562,7 +11623,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="52"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11579,7 +11640,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="52"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -11596,7 +11657,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="52"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -11613,7 +11674,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="52"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -11630,7 +11691,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="52"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -11647,7 +11708,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="52"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -11664,7 +11725,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="52"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -11681,7 +11742,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="52"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -11698,7 +11759,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="52"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -11715,7 +11776,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="52"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -11732,7 +11793,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="52"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -11749,7 +11810,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="52"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -11766,7 +11827,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="52"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -11783,7 +11844,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="52"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -11800,7 +11861,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="52"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -11817,7 +11878,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="52"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -11834,7 +11895,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="52"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -11851,7 +11912,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="52"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -11868,7 +11929,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="52"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -11885,7 +11946,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="52"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -11902,7 +11963,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="52"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -11919,7 +11980,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="52"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -11936,7 +11997,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="52"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -11953,7 +12014,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="52"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -11970,7 +12031,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="52"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -11987,7 +12048,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="52"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12004,7 +12065,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="52"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12021,7 +12082,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="52"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12038,7 +12099,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="52"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12055,7 +12116,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="52"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12072,7 +12133,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="52"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12089,7 +12150,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="52"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12106,7 +12167,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="52"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12123,7 +12184,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="52"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12140,7 +12201,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="52"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12157,7 +12218,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="52"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12174,7 +12235,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="52"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12191,7 +12252,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="52"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12208,7 +12269,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="52"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12225,7 +12286,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="52"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12242,7 +12303,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="52"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12259,7 +12320,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="52"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12276,7 +12337,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="52"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12293,7 +12354,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="52"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12310,7 +12371,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="52"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12327,7 +12388,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="52"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12344,7 +12405,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="52"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12361,7 +12422,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="52"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12378,7 +12439,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="52"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12395,7 +12456,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="52"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12412,7 +12473,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="52"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12429,7 +12490,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="52"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12446,7 +12507,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="52"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12463,7 +12524,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="52"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12480,7 +12541,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="52"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12497,7 +12558,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="52"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12514,7 +12575,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="52"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -12531,7 +12592,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="52"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -12548,7 +12609,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="52"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -12565,7 +12626,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="52"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -12582,7 +12643,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="52"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -12599,7 +12660,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="52"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -12616,7 +12677,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="52"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -12633,7 +12694,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="52"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -12650,7 +12711,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="52"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -12667,7 +12728,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="52"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -12684,7 +12745,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="52"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -12701,7 +12762,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="52"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -12718,7 +12779,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="52"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -12735,7 +12796,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="52"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -12752,7 +12813,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="52"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -12769,7 +12830,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="52"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -12786,7 +12847,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="52"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -12803,7 +12864,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="52"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -12820,7 +12881,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="52"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -12837,7 +12898,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="52"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -12854,7 +12915,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="52"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -12871,7 +12932,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="52"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -12888,7 +12949,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="52"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -12905,7 +12966,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="52"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -12922,7 +12983,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="52"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -12939,7 +13000,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="52"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -12956,7 +13017,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="52"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -12973,7 +13034,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="52"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -12990,7 +13051,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="52"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13007,7 +13068,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="52"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -13024,7 +13085,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="52"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -13041,7 +13102,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="52"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -13058,7 +13119,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="52"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -13075,7 +13136,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="52"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -13092,7 +13153,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="52"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -13109,7 +13170,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="52"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13126,7 +13187,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="52"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13143,7 +13204,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="52"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13160,12 +13221,49 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="52"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
       <c r="N179" s="23"/>
       <c r="O179" s="22"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="52"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="23"/>
+      <c r="M180" s="21"/>
+      <c r="N180" s="23"/>
+      <c r="O180" s="22"/>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="52"/>
+      <c r="K181" s="22"/>
+      <c r="L181" s="23"/>
+      <c r="M181" s="21"/>
+      <c r="N181" s="23"/>
+      <c r="O181" s="22"/>
+    </row>
+    <row r="182" spans="6:6">
+      <c r="F182" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13174,18 +13272,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N80:N179">
+  <conditionalFormatting sqref="N82:N181">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N80,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N82,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N80,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N82,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N80,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N82,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N79">
+  <conditionalFormatting sqref="N1 N3:N81">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13197,10 +13295,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C14 C15 C16 C17 C18 C21 C22 C23 C26 C27 C28 C29 C30 C12:C13 C19:C20 C24:C25 C31:C179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C21 C22 C23 C26 C27 C28 C29 C30 C31 C32 C33 C38 C19:C20 C24:C25 C34:C36 C39:C48 C49:C181">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D14 D15 D16 D17 D18 D21 D22 D23 D26 D27 D28 D29 D30 D12:D13 D19:D20 D24:D25 D31:D179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D21 D22 D23 D26 D27 D28 D29 D30 D31 D32 D33 D38 D19:D20 D24:D25 D34:D36 D39:D48 D49:D181">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-ViewRegister.xlsx
+++ b/tests/artifact/script/UI-ViewRegister.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -57,12 +57,25 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="813">
   <si>
     <t>target</t>
   </si>
@@ -2334,6 +2347,9 @@
   </si>
   <si>
     <t>${org.hamburger}</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
   <si>
     <t>click on Reports</t>
@@ -2504,12 +2520,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2601,6 +2617,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2609,6 +2680,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2624,114 +2734,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2740,6 +2742,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2766,67 +2782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,7 +2806,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,79 +2938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2940,7 +2956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,26 +3006,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3038,6 +3054,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3053,17 +3084,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3078,158 +3103,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3275,14 +3291,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3458,52 +3474,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6497,7 +6513,7 @@
   <dimension ref="A1:O188"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9827,10 +9843,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10002,12 +10018,14 @@
         <v>30</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>756</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="27" t="s">
+        <v>757</v>
+      </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -10018,46 +10036,46 @@
       <c r="N6" s="48"/>
       <c r="O6" s="47"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
-      <c r="B7" s="30" t="s">
-        <v>757</v>
-      </c>
+      <c r="B7" s="30"/>
       <c r="C7" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>363</v>
+        <v>715</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="22"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="30" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>760</v>
-      </c>
-      <c r="F8" s="27"/>
+        <v>759</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>757</v>
+      </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
@@ -10069,22 +10087,22 @@
       <c r="O8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A9" s="19" t="s">
-        <v>761</v>
-      </c>
+      <c r="A9" s="19"/>
       <c r="B9" s="30" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F9" s="28"/>
+        <v>761</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>757</v>
+      </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -10096,9 +10114,11 @@
       <c r="O9" s="22"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="19" t="s">
+        <v>762</v>
+      </c>
       <c r="B10" s="30" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>30</v>
@@ -10107,7 +10127,7 @@
         <v>253</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="27"/>
@@ -10123,20 +10143,18 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>692</v>
+        <v>253</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>768</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="F11" s="28"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -10149,18 +10167,20 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="C12" s="26" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="E12" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>769</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>770</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -10174,19 +10194,19 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>771</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>772</v>
-      </c>
-      <c r="F13" s="28"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -10199,17 +10219,17 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>773</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>774</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="27"/>
@@ -10225,20 +10245,18 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>776</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="F15" s="28"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -10252,18 +10270,20 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="F16" s="28"/>
+        <v>775</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>777</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -10277,20 +10297,18 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>781</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="F17" s="28"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -10304,18 +10322,20 @@
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="30" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="F18" s="28"/>
+        <v>781</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>782</v>
+      </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -10329,16 +10349,16 @@
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
       <c r="B19" s="30" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="27"/>
@@ -10354,16 +10374,16 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="27"/>
@@ -10379,16 +10399,16 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="30" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="27"/>
@@ -10403,21 +10423,19 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
-      <c r="B22" s="31" t="s">
-        <v>790</v>
+      <c r="B22" s="30" t="s">
+        <v>789</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>483</v>
+        <v>253</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>792</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="F22" s="28"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -10430,20 +10448,20 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
-      <c r="B23" s="30" t="s">
-        <v>793</v>
+      <c r="B23" s="31" t="s">
+        <v>791</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -10457,20 +10475,20 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>795</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>796</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>797</v>
+      <c r="F24" s="28" t="s">
+        <v>793</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
@@ -10484,20 +10502,20 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
-      <c r="B25" s="30" t="s">
-        <v>798</v>
+      <c r="B25" s="20" t="s">
+        <v>796</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="37" t="s">
-        <v>49</v>
+      <c r="D25" s="35" t="s">
+        <v>465</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>799</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>800</v>
+        <v>797</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>798</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -10512,19 +10530,19 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
       <c r="B26" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>801</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>802</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>803</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -10539,19 +10557,19 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
+        <v>802</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>803</v>
+      </c>
+      <c r="F27" s="36" t="s">
         <v>804</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>805</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>806</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -10566,19 +10584,19 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>807</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>808</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>809</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -10593,7 +10611,7 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>5</v>
@@ -10602,10 +10620,10 @@
         <v>471</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -10619,11 +10637,21 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>809</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>812</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -10636,11 +10664,11 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
@@ -13167,6 +13195,23 @@
       <c r="N179" s="23"/>
       <c r="O179" s="22"/>
     </row>
+    <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="50"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="23"/>
+      <c r="M180" s="21"/>
+      <c r="N180" s="23"/>
+      <c r="O180" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -13174,18 +13219,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N80:N179">
+  <conditionalFormatting sqref="N81:N180">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N80,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N80,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N80,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N79">
+  <conditionalFormatting sqref="N1 N3:N80">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13197,10 +13242,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C14 C15 C16 C17 C18 C21 C22 C23 C26 C27 C28 C29 C30 C12:C13 C19:C20 C24:C25 C31:C179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C15 C16 C17 C18 C19 C22 C23 C24 C27 C28 C29 C30 C31 C13:C14 C20:C21 C25:C26 C32:C180">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D14 D15 D16 D17 D18 D21 D22 D23 D26 D27 D28 D29 D30 D12:D13 D19:D20 D24:D25 D31:D179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D15 D16 D17 D18 D19 D22 D23 D24 D27 D28 D29 D30 D31 D13:D14 D20:D21 D25:D26 D32:D180">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
